--- a/Track Sample Data.xlsx
+++ b/Track Sample Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d3badd5cb47ce8d/Documents/1140 Project/TRAINS-TEAM2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="249" documentId="8_{79B41D9D-83C9-444C-8AC9-222212528FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B233F74B-FAEC-4BBD-A2C9-3B93EFC14127}"/>
+  <xr:revisionPtr revIDLastSave="274" documentId="8_{79B41D9D-83C9-444C-8AC9-222212528FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DC13522-BD3B-4F94-B9F9-D9185E23728F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" activeTab="1" xr2:uid="{BEC03B7A-BD29-45ED-A8E1-45577A1AC928}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Train ID</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>Train 1111</t>
+  </si>
+  <si>
+    <t>Block Occpuancy</t>
   </si>
 </sst>
 </file>
@@ -505,7 +508,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -616,10 +619,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C9DE058-D8D9-4215-BCE6-6437F6ABD9E9}">
-  <dimension ref="A1:P144"/>
+  <dimension ref="A1:Q144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F114" workbookViewId="0">
-      <selection activeCell="L142" sqref="L142"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -628,18 +631,19 @@
     <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -655,41 +659,44 @@
       <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>21</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>19</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>20</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>0</v>
       </c>
@@ -703,37 +710,40 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
         <v>42</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
       <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
         <v>12</v>
       </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
       <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>0</v>
       </c>
@@ -747,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -761,20 +771,23 @@
       <c r="K3">
         <v>1</v>
       </c>
-      <c r="M3">
-        <v>0</v>
+      <c r="L3">
+        <v>1</v>
       </c>
       <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
         <v>18</v>
       </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
       <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>1</v>
       </c>
@@ -785,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -793,26 +806,29 @@
       <c r="H4">
         <v>1</v>
       </c>
-      <c r="J4">
+      <c r="I4">
         <v>1</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
-      <c r="M4">
-        <v>0</v>
+      <c r="L4">
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>6</v>
       </c>
       <c r="P4">
+        <v>6</v>
+      </c>
+      <c r="Q4">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>1</v>
       </c>
@@ -826,25 +842,28 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="I5">
         <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
-      <c r="N5">
-        <v>8</v>
+      <c r="L5">
+        <v>0</v>
       </c>
       <c r="O5">
         <v>8</v>
       </c>
       <c r="P5">
+        <v>8</v>
+      </c>
+      <c r="Q5">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>0</v>
       </c>
@@ -852,31 +871,34 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="J6">
-        <v>1</v>
+      <c r="I6">
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
       </c>
       <c r="O6">
         <v>3</v>
       </c>
       <c r="P6">
+        <v>3</v>
+      </c>
+      <c r="Q6">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>1</v>
       </c>
@@ -884,22 +906,22 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="J7">
-        <v>1</v>
+      <c r="I7">
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
       </c>
       <c r="O7">
         <v>2</v>
@@ -907,8 +929,11 @@
       <c r="P7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>0</v>
       </c>
@@ -921,40 +946,43 @@
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="J8">
-        <v>1</v>
+      <c r="H8">
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
       </c>
       <c r="O8">
         <v>1</v>
       </c>
       <c r="P8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
-      <c r="N9">
-        <v>5</v>
+      <c r="L9">
+        <v>1</v>
       </c>
       <c r="O9">
         <v>5</v>
@@ -962,25 +990,28 @@
       <c r="P9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
       </c>
       <c r="O10">
         <v>5</v>
@@ -988,8 +1019,11 @@
       <c r="P10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D11">
         <v>0</v>
       </c>
@@ -997,16 +1031,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="H11">
         <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
-      <c r="N11">
-        <v>5</v>
+      <c r="L11">
+        <v>0</v>
       </c>
       <c r="O11">
         <v>5</v>
@@ -1014,25 +1048,28 @@
       <c r="P11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="J12">
+      <c r="H12">
         <v>1</v>
       </c>
       <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
       </c>
       <c r="O12">
         <v>5</v>
@@ -1040,25 +1077,28 @@
       <c r="P12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="J13">
+      <c r="H13">
         <v>1</v>
       </c>
       <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
       </c>
       <c r="O13">
         <v>5</v>
@@ -1066,8 +1106,11 @@
       <c r="P13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D14">
         <v>0</v>
       </c>
@@ -1075,97 +1118,115 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>1</v>
       </c>
       <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>55</v>
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
       </c>
       <c r="O14">
         <v>55</v>
       </c>
       <c r="P14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="Q14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>1</v>
       </c>
       <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="O15">
         <v>12</v>
       </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
       <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="N16">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="O16">
         <v>18</v>
       </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
       <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N17">
-        <v>6</v>
+    <row r="17" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>1</v>
       </c>
       <c r="O17">
         <v>6</v>
       </c>
       <c r="P17">
+        <v>6</v>
+      </c>
+      <c r="Q17">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N18">
-        <v>8</v>
+    <row r="18" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>0</v>
       </c>
       <c r="O18">
         <v>8</v>
       </c>
       <c r="P18">
+        <v>8</v>
+      </c>
+      <c r="Q18">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N19">
-        <v>3</v>
+    <row r="19" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>0</v>
       </c>
       <c r="O19">
         <v>3</v>
       </c>
       <c r="P19">
+        <v>3</v>
+      </c>
+      <c r="Q19">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N20">
-        <v>2</v>
+    <row r="20" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <v>0</v>
       </c>
       <c r="O20">
         <v>2</v>
@@ -1173,21 +1234,27 @@
       <c r="P20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N21">
-        <v>1</v>
+      <c r="Q20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <v>0</v>
       </c>
       <c r="O21">
         <v>1</v>
       </c>
       <c r="P21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N22">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <v>0</v>
       </c>
       <c r="O22">
         <v>5</v>
@@ -1195,10 +1262,13 @@
       <c r="P22">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N23">
-        <v>5</v>
+      <c r="Q22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <v>1</v>
       </c>
       <c r="O23">
         <v>5</v>
@@ -1206,1335 +1276,1338 @@
       <c r="P23">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N24">
-        <v>5</v>
-      </c>
+      <c r="Q23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="6:17" x14ac:dyDescent="0.3">
       <c r="O24">
         <v>5</v>
       </c>
       <c r="P24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N25">
-        <v>5</v>
-      </c>
+      <c r="Q24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="6:17" x14ac:dyDescent="0.3">
       <c r="O25">
         <v>5</v>
       </c>
       <c r="P25">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N26">
-        <v>5</v>
-      </c>
+      <c r="Q25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="6:17" x14ac:dyDescent="0.3">
       <c r="O26">
         <v>5</v>
       </c>
       <c r="P26">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N27">
-        <v>55</v>
-      </c>
+      <c r="Q26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="6:17" x14ac:dyDescent="0.3">
       <c r="O27">
         <v>55</v>
       </c>
       <c r="P27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N28">
+        <v>55</v>
+      </c>
+      <c r="Q27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="O28">
         <v>12</v>
       </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
       <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N29">
+    <row r="29" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="O29">
         <v>18</v>
       </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
       <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N30">
-        <v>6</v>
-      </c>
+    <row r="30" spans="6:17" x14ac:dyDescent="0.3">
       <c r="O30">
         <v>6</v>
       </c>
       <c r="P30">
+        <v>6</v>
+      </c>
+      <c r="Q30">
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N31">
-        <v>8</v>
-      </c>
+    <row r="31" spans="6:17" x14ac:dyDescent="0.3">
       <c r="O31">
         <v>8</v>
       </c>
       <c r="P31">
+        <v>8</v>
+      </c>
+      <c r="Q31">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N32">
-        <v>3</v>
-      </c>
+    <row r="32" spans="6:17" x14ac:dyDescent="0.3">
       <c r="O32">
         <v>3</v>
       </c>
       <c r="P32">
+        <v>3</v>
+      </c>
+      <c r="Q32">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N33">
-        <v>2</v>
-      </c>
+    <row r="33" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O33">
         <v>2</v>
       </c>
       <c r="P33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N34">
-        <v>1</v>
-      </c>
+      <c r="Q33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O34">
         <v>1</v>
       </c>
       <c r="P34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N35">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O35">
         <v>5</v>
       </c>
       <c r="P35">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N36">
-        <v>5</v>
-      </c>
+      <c r="Q35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O36">
         <v>5</v>
       </c>
       <c r="P36">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N37">
-        <v>5</v>
-      </c>
+      <c r="Q36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O37">
         <v>5</v>
       </c>
       <c r="P37">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N38">
-        <v>5</v>
-      </c>
+      <c r="Q37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O38">
         <v>5</v>
       </c>
       <c r="P38">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N39">
-        <v>5</v>
-      </c>
+      <c r="Q38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O39">
         <v>5</v>
       </c>
       <c r="P39">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N40">
-        <v>55</v>
-      </c>
+      <c r="Q39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O40">
         <v>55</v>
       </c>
       <c r="P40">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N41">
+        <v>55</v>
+      </c>
+      <c r="Q40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="15:17" x14ac:dyDescent="0.3">
+      <c r="O41">
         <v>12</v>
       </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
       <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N42">
+    <row r="42" spans="15:17" x14ac:dyDescent="0.3">
+      <c r="O42">
         <v>18</v>
       </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
       <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N43">
-        <v>6</v>
-      </c>
+    <row r="43" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O43">
         <v>6</v>
       </c>
       <c r="P43">
+        <v>6</v>
+      </c>
+      <c r="Q43">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N44">
-        <v>8</v>
-      </c>
+    <row r="44" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O44">
         <v>8</v>
       </c>
       <c r="P44">
+        <v>8</v>
+      </c>
+      <c r="Q44">
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N45">
-        <v>3</v>
-      </c>
+    <row r="45" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O45">
         <v>3</v>
       </c>
       <c r="P45">
+        <v>3</v>
+      </c>
+      <c r="Q45">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N46">
-        <v>2</v>
-      </c>
+    <row r="46" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O46">
         <v>2</v>
       </c>
       <c r="P46">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N47">
-        <v>1</v>
-      </c>
+      <c r="Q46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O47">
         <v>1</v>
       </c>
       <c r="P47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N48">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O48">
         <v>5</v>
       </c>
       <c r="P48">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N49">
-        <v>5</v>
-      </c>
+      <c r="Q48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O49">
         <v>5</v>
       </c>
       <c r="P49">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N50">
-        <v>5</v>
-      </c>
+      <c r="Q49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O50">
         <v>5</v>
       </c>
       <c r="P50">
         <v>5</v>
       </c>
-    </row>
-    <row r="51" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N51">
-        <v>5</v>
-      </c>
+      <c r="Q50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O51">
         <v>5</v>
       </c>
       <c r="P51">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N52">
-        <v>5</v>
-      </c>
+      <c r="Q51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O52">
         <v>5</v>
       </c>
       <c r="P52">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N53">
-        <v>55</v>
-      </c>
+      <c r="Q52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O53">
         <v>55</v>
       </c>
       <c r="P53">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N54">
+        <v>55</v>
+      </c>
+      <c r="Q53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="15:17" x14ac:dyDescent="0.3">
+      <c r="O54">
         <v>12</v>
       </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
       <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N55">
+    <row r="55" spans="15:17" x14ac:dyDescent="0.3">
+      <c r="O55">
         <v>18</v>
       </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
       <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N56">
-        <v>6</v>
-      </c>
+    <row r="56" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O56">
         <v>6</v>
       </c>
       <c r="P56">
+        <v>6</v>
+      </c>
+      <c r="Q56">
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N57">
-        <v>8</v>
-      </c>
+    <row r="57" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O57">
         <v>8</v>
       </c>
       <c r="P57">
+        <v>8</v>
+      </c>
+      <c r="Q57">
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N58">
-        <v>3</v>
-      </c>
+    <row r="58" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O58">
         <v>3</v>
       </c>
       <c r="P58">
+        <v>3</v>
+      </c>
+      <c r="Q58">
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N59">
-        <v>2</v>
-      </c>
+    <row r="59" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O59">
         <v>2</v>
       </c>
       <c r="P59">
         <v>2</v>
       </c>
-    </row>
-    <row r="60" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N60">
-        <v>1</v>
-      </c>
+      <c r="Q59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O60">
         <v>1</v>
       </c>
       <c r="P60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N61">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O61">
         <v>5</v>
       </c>
       <c r="P61">
         <v>5</v>
       </c>
-    </row>
-    <row r="62" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N62">
-        <v>5</v>
-      </c>
+      <c r="Q61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O62">
         <v>5</v>
       </c>
       <c r="P62">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N63">
-        <v>5</v>
-      </c>
+      <c r="Q62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O63">
         <v>5</v>
       </c>
       <c r="P63">
         <v>5</v>
       </c>
-    </row>
-    <row r="64" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N64">
-        <v>5</v>
-      </c>
+      <c r="Q63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O64">
         <v>5</v>
       </c>
       <c r="P64">
         <v>5</v>
       </c>
-    </row>
-    <row r="65" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N65">
-        <v>5</v>
-      </c>
+      <c r="Q64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O65">
         <v>5</v>
       </c>
       <c r="P65">
         <v>5</v>
       </c>
-    </row>
-    <row r="66" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N66">
-        <v>55</v>
-      </c>
+      <c r="Q65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O66">
         <v>55</v>
       </c>
       <c r="P66">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N67">
+        <v>55</v>
+      </c>
+      <c r="Q66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="15:17" x14ac:dyDescent="0.3">
+      <c r="O67">
         <v>12</v>
       </c>
-      <c r="O67">
-        <v>0</v>
-      </c>
       <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N68">
+    <row r="68" spans="15:17" x14ac:dyDescent="0.3">
+      <c r="O68">
         <v>18</v>
       </c>
-      <c r="O68">
-        <v>0</v>
-      </c>
       <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N69">
-        <v>6</v>
-      </c>
+    <row r="69" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O69">
         <v>6</v>
       </c>
       <c r="P69">
+        <v>6</v>
+      </c>
+      <c r="Q69">
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N70">
-        <v>8</v>
-      </c>
+    <row r="70" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O70">
         <v>8</v>
       </c>
       <c r="P70">
+        <v>8</v>
+      </c>
+      <c r="Q70">
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N71">
-        <v>3</v>
-      </c>
+    <row r="71" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O71">
         <v>3</v>
       </c>
       <c r="P71">
+        <v>3</v>
+      </c>
+      <c r="Q71">
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N72">
-        <v>2</v>
-      </c>
+    <row r="72" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O72">
         <v>2</v>
       </c>
       <c r="P72">
         <v>2</v>
       </c>
-    </row>
-    <row r="73" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N73">
-        <v>1</v>
-      </c>
+      <c r="Q72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O73">
         <v>1</v>
       </c>
       <c r="P73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N74">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O74">
         <v>5</v>
       </c>
       <c r="P74">
         <v>5</v>
       </c>
-    </row>
-    <row r="75" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N75">
-        <v>5</v>
-      </c>
+      <c r="Q74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O75">
         <v>5</v>
       </c>
       <c r="P75">
         <v>5</v>
       </c>
-    </row>
-    <row r="76" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N76">
-        <v>5</v>
-      </c>
+      <c r="Q75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O76">
         <v>5</v>
       </c>
       <c r="P76">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N77">
-        <v>5</v>
-      </c>
+      <c r="Q76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O77">
         <v>5</v>
       </c>
       <c r="P77">
         <v>5</v>
       </c>
-    </row>
-    <row r="78" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N78">
-        <v>5</v>
-      </c>
+      <c r="Q77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O78">
         <v>5</v>
       </c>
       <c r="P78">
         <v>5</v>
       </c>
-    </row>
-    <row r="79" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N79">
-        <v>55</v>
-      </c>
+      <c r="Q78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O79">
         <v>55</v>
       </c>
       <c r="P79">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="80" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N80">
+        <v>55</v>
+      </c>
+      <c r="Q79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="15:17" x14ac:dyDescent="0.3">
+      <c r="O80">
         <v>12</v>
       </c>
-      <c r="O80">
-        <v>0</v>
-      </c>
       <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N81">
+    <row r="81" spans="15:17" x14ac:dyDescent="0.3">
+      <c r="O81">
         <v>18</v>
       </c>
-      <c r="O81">
-        <v>0</v>
-      </c>
       <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N82">
-        <v>6</v>
-      </c>
+    <row r="82" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O82">
         <v>6</v>
       </c>
       <c r="P82">
+        <v>6</v>
+      </c>
+      <c r="Q82">
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N83">
-        <v>8</v>
-      </c>
+    <row r="83" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O83">
         <v>8</v>
       </c>
       <c r="P83">
+        <v>8</v>
+      </c>
+      <c r="Q83">
         <v>22</v>
       </c>
     </row>
-    <row r="84" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N84">
-        <v>3</v>
-      </c>
+    <row r="84" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O84">
         <v>3</v>
       </c>
       <c r="P84">
+        <v>3</v>
+      </c>
+      <c r="Q84">
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N85">
-        <v>2</v>
-      </c>
+    <row r="85" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O85">
         <v>2</v>
       </c>
       <c r="P85">
         <v>2</v>
       </c>
-    </row>
-    <row r="86" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N86">
-        <v>1</v>
-      </c>
+      <c r="Q85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O86">
         <v>1</v>
       </c>
       <c r="P86">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N87">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O87">
         <v>5</v>
       </c>
       <c r="P87">
         <v>5</v>
       </c>
-    </row>
-    <row r="88" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N88">
-        <v>5</v>
-      </c>
+      <c r="Q87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O88">
         <v>5</v>
       </c>
       <c r="P88">
         <v>5</v>
       </c>
-    </row>
-    <row r="89" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N89">
-        <v>5</v>
-      </c>
+      <c r="Q88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O89">
         <v>5</v>
       </c>
       <c r="P89">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N90">
-        <v>5</v>
-      </c>
+      <c r="Q89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O90">
         <v>5</v>
       </c>
       <c r="P90">
         <v>5</v>
       </c>
-    </row>
-    <row r="91" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N91">
-        <v>5</v>
-      </c>
+      <c r="Q90">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O91">
         <v>5</v>
       </c>
       <c r="P91">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N92">
-        <v>55</v>
-      </c>
+      <c r="Q91">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O92">
         <v>55</v>
       </c>
       <c r="P92">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N93">
+        <v>55</v>
+      </c>
+      <c r="Q92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="15:17" x14ac:dyDescent="0.3">
+      <c r="O93">
         <v>12</v>
       </c>
-      <c r="O93">
-        <v>0</v>
-      </c>
       <c r="P93">
+        <v>0</v>
+      </c>
+      <c r="Q93">
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N94">
+    <row r="94" spans="15:17" x14ac:dyDescent="0.3">
+      <c r="O94">
         <v>18</v>
       </c>
-      <c r="O94">
-        <v>0</v>
-      </c>
       <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="Q94">
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N95">
-        <v>6</v>
-      </c>
+    <row r="95" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O95">
         <v>6</v>
       </c>
       <c r="P95">
+        <v>6</v>
+      </c>
+      <c r="Q95">
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N96">
-        <v>8</v>
-      </c>
+    <row r="96" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O96">
         <v>8</v>
       </c>
       <c r="P96">
+        <v>8</v>
+      </c>
+      <c r="Q96">
         <v>22</v>
       </c>
     </row>
-    <row r="97" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N97">
-        <v>3</v>
-      </c>
+    <row r="97" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O97">
         <v>3</v>
       </c>
       <c r="P97">
+        <v>3</v>
+      </c>
+      <c r="Q97">
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N98">
-        <v>2</v>
-      </c>
+    <row r="98" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O98">
         <v>2</v>
       </c>
       <c r="P98">
         <v>2</v>
       </c>
-    </row>
-    <row r="99" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N99">
-        <v>1</v>
-      </c>
+      <c r="Q98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O99">
         <v>1</v>
       </c>
       <c r="P99">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N100">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O100">
         <v>5</v>
       </c>
       <c r="P100">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N101">
-        <v>5</v>
-      </c>
+      <c r="Q100">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O101">
         <v>5</v>
       </c>
       <c r="P101">
         <v>5</v>
       </c>
-    </row>
-    <row r="102" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N102">
-        <v>5</v>
-      </c>
+      <c r="Q101">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O102">
         <v>5</v>
       </c>
       <c r="P102">
         <v>5</v>
       </c>
-    </row>
-    <row r="103" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N103">
-        <v>5</v>
-      </c>
+      <c r="Q102">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O103">
         <v>5</v>
       </c>
       <c r="P103">
         <v>5</v>
       </c>
-    </row>
-    <row r="104" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N104">
-        <v>5</v>
-      </c>
+      <c r="Q103">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O104">
         <v>5</v>
       </c>
       <c r="P104">
         <v>5</v>
       </c>
-    </row>
-    <row r="105" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N105">
-        <v>55</v>
-      </c>
+      <c r="Q104">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O105">
         <v>55</v>
       </c>
       <c r="P105">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="106" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N106">
-        <v>5</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="Q105">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O106">
         <v>5</v>
       </c>
       <c r="P106">
         <v>5</v>
       </c>
-    </row>
-    <row r="107" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N107">
-        <v>5</v>
-      </c>
+      <c r="Q106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O107">
         <v>5</v>
       </c>
       <c r="P107">
         <v>5</v>
       </c>
-    </row>
-    <row r="108" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N108">
-        <v>5</v>
-      </c>
+      <c r="Q107">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O108">
         <v>5</v>
       </c>
       <c r="P108">
         <v>5</v>
       </c>
-    </row>
-    <row r="109" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N109">
-        <v>5</v>
-      </c>
+      <c r="Q108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O109">
         <v>5</v>
       </c>
       <c r="P109">
         <v>5</v>
       </c>
-    </row>
-    <row r="110" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N110">
-        <v>55</v>
-      </c>
+      <c r="Q109">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O110">
         <v>55</v>
       </c>
       <c r="P110">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="111" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N111">
+        <v>55</v>
+      </c>
+      <c r="Q110">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="15:17" x14ac:dyDescent="0.3">
+      <c r="O111">
         <v>12</v>
       </c>
-      <c r="O111">
-        <v>0</v>
-      </c>
       <c r="P111">
+        <v>0</v>
+      </c>
+      <c r="Q111">
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N112">
+    <row r="112" spans="15:17" x14ac:dyDescent="0.3">
+      <c r="O112">
         <v>18</v>
       </c>
-      <c r="O112">
-        <v>0</v>
-      </c>
       <c r="P112">
+        <v>0</v>
+      </c>
+      <c r="Q112">
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N113">
-        <v>6</v>
-      </c>
+    <row r="113" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O113">
         <v>6</v>
       </c>
       <c r="P113">
+        <v>6</v>
+      </c>
+      <c r="Q113">
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N114">
-        <v>8</v>
-      </c>
+    <row r="114" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O114">
         <v>8</v>
       </c>
       <c r="P114">
+        <v>8</v>
+      </c>
+      <c r="Q114">
         <v>22</v>
       </c>
     </row>
-    <row r="115" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N115">
-        <v>3</v>
-      </c>
+    <row r="115" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O115">
         <v>3</v>
       </c>
       <c r="P115">
+        <v>3</v>
+      </c>
+      <c r="Q115">
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N116">
-        <v>2</v>
-      </c>
+    <row r="116" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O116">
         <v>2</v>
       </c>
       <c r="P116">
         <v>2</v>
       </c>
-    </row>
-    <row r="117" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N117">
-        <v>1</v>
-      </c>
+      <c r="Q116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O117">
         <v>1</v>
       </c>
       <c r="P117">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N118">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O118">
         <v>5</v>
       </c>
       <c r="P118">
         <v>5</v>
       </c>
-    </row>
-    <row r="119" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N119">
-        <v>5</v>
-      </c>
+      <c r="Q118">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O119">
         <v>5</v>
       </c>
       <c r="P119">
         <v>5</v>
       </c>
-    </row>
-    <row r="120" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N120">
-        <v>5</v>
-      </c>
+      <c r="Q119">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O120">
         <v>5</v>
       </c>
       <c r="P120">
         <v>5</v>
       </c>
-    </row>
-    <row r="121" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N121">
-        <v>5</v>
-      </c>
+      <c r="Q120">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O121">
         <v>5</v>
       </c>
       <c r="P121">
         <v>5</v>
       </c>
-    </row>
-    <row r="122" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N122">
-        <v>5</v>
-      </c>
+      <c r="Q121">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O122">
         <v>5</v>
       </c>
       <c r="P122">
         <v>5</v>
       </c>
-    </row>
-    <row r="123" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N123">
-        <v>55</v>
-      </c>
+      <c r="Q122">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O123">
         <v>55</v>
       </c>
       <c r="P123">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="124" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N124">
-        <v>5</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="Q123">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O124">
         <v>5</v>
       </c>
       <c r="P124">
         <v>5</v>
       </c>
-    </row>
-    <row r="125" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N125">
-        <v>5</v>
-      </c>
+      <c r="Q124">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O125">
         <v>5</v>
       </c>
       <c r="P125">
         <v>5</v>
       </c>
-    </row>
-    <row r="126" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N126">
-        <v>5</v>
-      </c>
+      <c r="Q125">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O126">
         <v>5</v>
       </c>
       <c r="P126">
         <v>5</v>
       </c>
-    </row>
-    <row r="127" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N127">
-        <v>5</v>
-      </c>
+      <c r="Q126">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O127">
         <v>5</v>
       </c>
       <c r="P127">
         <v>5</v>
       </c>
-    </row>
-    <row r="128" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N128">
-        <v>55</v>
-      </c>
+      <c r="Q127">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O128">
         <v>55</v>
       </c>
       <c r="P128">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="129" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N129">
+        <v>55</v>
+      </c>
+      <c r="Q128">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="15:17" x14ac:dyDescent="0.3">
+      <c r="O129">
         <v>12</v>
       </c>
-      <c r="O129">
-        <v>0</v>
-      </c>
       <c r="P129">
+        <v>0</v>
+      </c>
+      <c r="Q129">
         <v>12</v>
       </c>
     </row>
-    <row r="130" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N130">
+    <row r="130" spans="15:17" x14ac:dyDescent="0.3">
+      <c r="O130">
         <v>18</v>
       </c>
-      <c r="O130">
-        <v>0</v>
-      </c>
       <c r="P130">
+        <v>0</v>
+      </c>
+      <c r="Q130">
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N131">
-        <v>6</v>
-      </c>
+    <row r="131" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O131">
         <v>6</v>
       </c>
       <c r="P131">
+        <v>6</v>
+      </c>
+      <c r="Q131">
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N132">
-        <v>8</v>
-      </c>
+    <row r="132" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O132">
         <v>8</v>
       </c>
       <c r="P132">
+        <v>8</v>
+      </c>
+      <c r="Q132">
         <v>22</v>
       </c>
     </row>
-    <row r="133" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N133">
-        <v>3</v>
-      </c>
+    <row r="133" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O133">
         <v>3</v>
       </c>
       <c r="P133">
+        <v>3</v>
+      </c>
+      <c r="Q133">
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N134">
-        <v>2</v>
-      </c>
+    <row r="134" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O134">
         <v>2</v>
       </c>
       <c r="P134">
         <v>2</v>
       </c>
-    </row>
-    <row r="135" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N135">
-        <v>1</v>
-      </c>
+      <c r="Q134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O135">
         <v>1</v>
       </c>
       <c r="P135">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N136">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O136">
         <v>5</v>
       </c>
       <c r="P136">
         <v>5</v>
       </c>
-    </row>
-    <row r="137" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N137">
-        <v>5</v>
-      </c>
+      <c r="Q136">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O137">
         <v>5</v>
       </c>
       <c r="P137">
         <v>5</v>
       </c>
-    </row>
-    <row r="138" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N138">
-        <v>5</v>
-      </c>
+      <c r="Q137">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O138">
         <v>5</v>
       </c>
       <c r="P138">
         <v>5</v>
       </c>
-    </row>
-    <row r="139" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N139">
-        <v>5</v>
-      </c>
+      <c r="Q138">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O139">
         <v>5</v>
       </c>
       <c r="P139">
         <v>5</v>
       </c>
-    </row>
-    <row r="140" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N140">
-        <v>5</v>
-      </c>
+      <c r="Q139">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O140">
         <v>5</v>
       </c>
       <c r="P140">
         <v>5</v>
       </c>
-    </row>
-    <row r="141" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N141">
-        <v>55</v>
-      </c>
+      <c r="Q140">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O141">
         <v>55</v>
       </c>
       <c r="P141">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="142" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N142">
-        <v>5</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="Q141">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O142">
         <v>5</v>
       </c>
       <c r="P142">
         <v>5</v>
       </c>
-    </row>
-    <row r="143" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N143">
-        <v>5</v>
-      </c>
+      <c r="Q142">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O143">
         <v>5</v>
       </c>
       <c r="P143">
         <v>5</v>
       </c>
-    </row>
-    <row r="144" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="N144">
-        <v>55</v>
-      </c>
+      <c r="Q143">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O144">
         <v>55</v>
       </c>
       <c r="P144">
+        <v>55</v>
+      </c>
+      <c r="Q144">
         <v>5</v>
       </c>
     </row>
